--- a/EntregaRecepcionTHRM/INFO RAUL-BENITEZ/INFORME PLANEACION 2020-2024/Anexo COMPLANMod.xlsx
+++ b/EntregaRecepcionTHRM/INFO RAUL-BENITEZ/INFORME PLANEACION 2020-2024/Anexo COMPLANMod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rectroria/Documents/GitHub/EntregaRectoria/EntregaRecepcionTHRM/INFO RAUL-BENITEZ/INFORME PLANEACION 2020-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{097A9DE9-AE28-A344-99BD-4E41BA225C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BD4253-A2A0-BA4E-8843-004E9334E94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24660" windowHeight="18700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="18700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="1013">
   <si>
     <t>Agenda</t>
   </si>
@@ -5904,33 +5904,6 @@
     </r>
   </si>
   <si>
-    <t>10 de febrero de 2023</t>
-  </si>
-  <si>
-    <t>Revisión y en su caso aprobación del Acta de la 5a. Sesión Extraordinaria de la COMPLAN</t>
-  </si>
-  <si>
-    <t>Propuesta de calendario de Sesiones Ordinarias de la COMPLAN 2023</t>
-  </si>
-  <si>
-    <t>Avance de procedimientos</t>
-  </si>
-  <si>
-    <t>Avance de la Propuesta de Estructura Orgánica</t>
-  </si>
-  <si>
-    <t>Avance del Sistema Integral de Información Unificada (SIIU)</t>
-  </si>
-  <si>
-    <t>Seguimiento de metas y mapa de riesgos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puntos informativos sobre fondo de infraestructura. </t>
-  </si>
-  <si>
-    <t>Punto informativo aprobación del presupuesto</t>
-  </si>
-  <si>
     <t>UACM/COMPLAN/EX1 -001/2023</t>
   </si>
   <si>
@@ -6047,27 +6020,6 @@
     <t>Segunda Sesión Extraordinaria 2023</t>
   </si>
   <si>
-    <t>24 de marzo de 2023</t>
-  </si>
-  <si>
-    <t>Revisión y en su caso aprobación del Acta de la 1ra. Sesión Ordinaria de la COMPLAN</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de Personal Técnico en Urgencias Médicas.</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de Servicios Profesionales</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD, presentada por la Coordinación de Casa Libertad para la contratación de malla ciclónica</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD, presentada por la Coordinación de Casa Libertad para la contratación de instalación de gas</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD, presentada por la Coordinación de Cuautepec para la contratación de servicios de tapicería</t>
-  </si>
-  <si>
     <t>UACM/COMPLAN/EX2 004/2023</t>
   </si>
   <si>
@@ -6128,27 +6080,6 @@
     <t>Tercera Sesión Extraordinaria 2023</t>
   </si>
   <si>
-    <t>31 de marzo de 2023</t>
-  </si>
-  <si>
-    <t>Aprobación del Orden del Dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discusión y en su caso aprobación por parte de la COMPLAN de la propuesta de oferta académica semestre 2023-II. </t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD, presentada por la Coordinación de Casa Libertad para la contratación de servicios profesionales</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD paresentada por la Coordinación de Cuautepec para la contratación de servicios profesionales</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD paresentada por la Coordinación de Difusión Cultural y Extensión Universitaria para la contratación de servicios profesionales</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD paresentada por la Coordinación de Servicios Administrativos para la contratación de servicios profesionales</t>
-  </si>
-  <si>
     <t>La Comisión de Planeación aprobó el Orden del Dia de la 3ra. Sesión Extrordinaria 2023</t>
   </si>
   <si>
@@ -6200,42 +6131,6 @@
     <t>Cuarta Sesión Extraordinaria 2023</t>
   </si>
   <si>
-    <t>3 de mayo de 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revisión y en su caso aprobación del Acta de la 3a. Sesión Extraordinaria de la COMPLAN. </t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de tres solicitudes de recursos de la RANAD presentadas por la Coordinación del Colegio de Ciencia y Tecnología para la contratación de servicios profesionales</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte la COMPLAN de la solicitud de recursos de la RANAD presentada por la Coordinación de Difusión Cultural y Extensión Universitaria, para la contratación de servicios profesionales</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de dos solicitudes de recursos de la RANAD presentadas por la Coordinación de Cuautepec para la contratación de servicios profesionales</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de dos solicitudes de recursos de la RANAD presentadas por la Coordinación de San Lorenzo Tezonco, para la contratación de servicios profesionales</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de dos solicitudes de recursos de la RANAD presentadas por la Coordinación Académica.</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD presentada por la Coordinación de Comunicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD presentada por la Coordinación del Colegio de Ciencia y Humanidades </t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD presentada por la Contraloría General</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD presentada pr la Oficina del Abogado General</t>
-  </si>
-  <si>
-    <t>Punto informativo de la Coordinación de Planeación</t>
-  </si>
-  <si>
     <t>La Comisión de Planeación aprobó el Orden del Dia de la 4a. Sesión Extrordinaria 2023</t>
   </si>
   <si>
@@ -6326,27 +6221,6 @@
     <t>Quinta Sesión Extraordinaria 2023</t>
   </si>
   <si>
-    <t>5 de junio de 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discusión y en su caso aprobación por parte de la COMPLAN a la solicitud de recursos de la RANAD presentadas por la Coordinación de Cuautepec para la contratación de servicios profesionales </t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN a la solicitud de recursos de la RANAD, presentada por la Coordinación de Servicios Estudiantiles para la contratación de servicios profesionales</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN a la solicitud de recursos de la RANAD para la contratación de servicios profesionales, presentada por la Contraloría General</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN a la solicitud de recursos de la RANAD, presentada por Coordinación del Colegio de Ciencia y Tecnología para la contratación de servicios profesionales</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD, presentada por la Coordinación de Ciencias y Humanidades, para la contratación de servicios profesionales.</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN a la solicitud de recursos de la RANAD presentada por la Coordinación Académica, para la contratación de Servicios Profesionales</t>
-  </si>
-  <si>
     <t>La Comisión de Planeación aprobó por unanimidad el Orden del Día propuesto para la 5ª Sesión Extraordinaria 2023</t>
   </si>
   <si>
@@ -6461,15 +6335,6 @@
     <t>Sexta Sesión Extraordinaria 2023</t>
   </si>
   <si>
-    <t>20 de junio de 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punto informativo de la Rectoría y Coordinación de Planeación sobre las pólíticas prespuestales para la integración y captura del Programa Operativo anual 2023 </t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN del Proceso de Integración y Captura del POA 2024, para la aprobación del proyecto presupuesto 2024</t>
-  </si>
-  <si>
     <t>UACM/COMPLAN/EX6-047/2023</t>
   </si>
   <si>
@@ -6491,45 +6356,6 @@
     <t>Primera Sesión Ordinaria 2023</t>
   </si>
   <si>
-    <t>16 de marzo de 2023</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la propuesta de adenda al Calendario Escolar Bianual 2022-2023</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD presentada por la Contraloría General para la contratación de servicios profesionales</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de Personal Técnico en Urgencias Médicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de Servicios Profesionales </t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de servicios profesionales, científicos y técnicos integrales</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN) a la solicitud de recursos económicos de la RANAD, para la contratación de Servicios Profesionales.</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de servicios profesionales, científicos y técnicos integrales.</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD presentada por la Coordinación de Casa Libertad para la contratación de servicios profesionales</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD presentada por la Coordinación de Cuautepec para la contratación de tapicería</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD presentada por la Coordinación de Cuatepec para la contratación de servicios de señalética</t>
-  </si>
-  <si>
-    <t>Punto informativo sobre Política Laboral</t>
-  </si>
-  <si>
-    <t>Punto informativo . POA 2023</t>
-  </si>
-  <si>
     <t>UACM/COMPLAN/OR1 001/2023</t>
   </si>
   <si>
@@ -6602,124 +6428,641 @@
     <t>Tercera Sesión Ordinaria 2023</t>
   </si>
   <si>
-    <t>24 de agosto de 2023</t>
-  </si>
-  <si>
     <t>UACM/COMPLAN/OR3 004/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Revisión y en su caso aprobación del Acta de la 6a. Sesión Extraordinaria de la COMPLAN.  </t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para  la contratación prestadores de Servicios Profesionales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para  la contratación de prestadores de Servicios Profesionales.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información de Avance en la integración del POA 2024. </t>
-  </si>
-  <si>
+    <t xml:space="preserve">La Comisión de Planeación aprobó el Orden del Día de la 3ª Sesión Ordinaria 2023. </t>
+  </si>
+  <si>
+    <t>UACM/COMPLAN/OR3 005/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Comisión de Planeación aprobó el acta de acuerdos de la 6ª Sesión Extraordinaria realizada el 20 de junio de 2023. </t>
+  </si>
+  <si>
+    <t>UACM/COMPLAN/OR3 006/2023</t>
+  </si>
+  <si>
+    <t>UACM/COMPLAN/OR3 007/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Mtro. José Alberto Benítez Oliva, Secretario Técnico de la COMPLAN y Coordinador de Planeación, reiteró el aviso de que el día 25 de agosto a las 12:00 PM se cierra el POA, esto para que las áreas lo consideren y suban su POA 2024 bajo las políticas establecidas en la COMPLAN: Si se tiene alguna duda podrán consultar el estatus de su proceso con la Coordinación de Planeación. Explicó también que vinculado al proceso de construcción del POA, está el que las áreas deberán solicitar sus requerimientos a las áreas concentradoras marcando copia a Planeación. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobre el proceso de concentración de los requerimientos de bienes informáticos el Ing. Luis Alberto Aguilar Sánchez , Coordinador de Informática y Telecomunicaciones, informó que ha recibido requerimientos de Casa Libertad, Centro Histórico, Cuautepec, Colegio de Ciencias y Humanidades y también algunos de la comunidad universitaria y ya se observa una gran cantidad de bienes requeridos y aún faltan de recopilarse requerimientos de varias áreas, por lo que advierte que el techo presupuestal previsto para éste rubro será rebasado, por lo que la CIT como experto en el tema, hará un análisis de estos requerimientos y comunicará los se van a adquirir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asimismo, informó que implementará un plan de acción con prioridades que se notificará a los planteles, en qué consistirá, qué va a cubrir y con qué prioridad; como el caso del equipamiento del edifico de gobierno que recibió el Plantel Cuautepec que se usará para oficinas, que incluye además de computadoras, escáneres e impresoras, algunos otros bastante costosos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitó a las áreas que aún no han enviado sus requerimientos de bienes informáticos los envíen a la brevedad ala CIT, a fin de que pueda realizar su análisis y subir el POA en el plazo ya señalado. </t>
+  </si>
+  <si>
+    <t>Por otra parte, hizo un atento llamado para atender el problema del incremento de los consumibles de tóner, pidió que se identificara en los planteles dónde está su desperdicio o fuga en porqué se da. Comentó que la CIT ha identificado áreas que tienen casi una impresora por trabajador, estas prácticas generan un gasto excesivo para la universidad que registra junto con el incremento en el tóner, el incremento en el gasto de papel, así como en la basura contaminante y perjudicial para el medio ambiente. Anunció que va a hacer un plan de acción para restringir el uso excesivo de estos materiales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalmente explicó comentó que el POA de la CIT es muy alto, básicamente porque considera los mantenimientos especializados indispensables para los servicios que requiere la comunidad, porque en términos porcentuales el presupuesto que utiliza la operación de la CIT es del 4%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para cerrar el tema, el Mtro. Benítez solicitó a las áreas concentradoras racionalizar y jerarquizar en sus POA’s los requerimientos que les sean solicitados. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Rectora, Dra. Tania Hogla Rodríguez Mora, comentó que además la UACM está comprometida con el cumplimiento de la Ley de Austeridad Presupuestal y que el consumo de papel es justamente uno de los conceptos más observados y ya regulados. Destacó en general la obligación de todos de considerar el ahorrar de este y otros materiales básicos de la operación cotidiana de la universidad y evitar su desperdicio. </t>
+  </si>
+  <si>
+    <t>El Arq. Hugo Enrique De Lucio Torres, Coordinador de Obras y Conservación, informó que la mayoría de las áreas de la universidad ya tienen conocimiento de cómo realizar la integración del PAO (Programa Anual de Obras), para ello les se les hizo llegar el PAO del año pasado con todas sus requisiciones de servicios y necesidades, se les pidió que identifiquen y prioricen sus necesidades, porque la COC no cuenta con la capacidad económica ni la capacidad de desarrollar todas las actividades. Señaló que lo más importante del PAO es que se trabaje en conjunto, como ya lo han estado haciendo los coordinadores de colegio que se acercan a los coordinadores de plantel y esto a su vez con el consejo de plantel para que la COC sólo tenga un PAO por plantel. Es muy importante que la COC cuente el PAO de cada plantel para trabajar coordinadamente con la CIT, a efecto de poder realizar de forma programada, las instalaciones requeridas por los equipos informáticos que se van a entregar.</t>
+  </si>
+  <si>
+    <t>Primera Sesión Extraordinaria 2023</t>
+  </si>
+  <si>
+    <t>Séptima Sesión Extraordinaria 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Comisión de Planeación aprueba el Orden del Día de la 7ª Sesión Extraordinaria 2023. </t>
+  </si>
+  <si>
+    <t>UACM/COMPLAN/EX7-51/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Comisión de Planeación aprueba el acta de acuerdos de la 3ª Sesión Ordinaria realizada el 24 de agosto de 2023. </t>
+  </si>
+  <si>
+    <t>UACM/COMPLAN/EX7-52/2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La Comisión de Planeación (COMPLAN) de la Universidad Autónoma de la Ciudad de México, autoriza el uso de los recursos de la RANAD, por la cantidad </t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de $145,464.00 (ciento cuarenta y cinco mil cuatrocientos sesenta y cuatro 00/100) importe IVA incluido, menos retenciones del ISR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a favor de la Unidad Responsable de Gasto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7100 Colegio de Ciencia y Tecnología</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Partida 3391</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> número de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meta 23-0069-000-000-000-7100-0058</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, nombre de la meta: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Apoyar la formación de los estudiantes del Colegio equipando los laboratorios de docencia para el desarrollo de sus prácticas”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a efecto de que sean utilizados para la contratación de dos personas prestadoras de servicios profesionales que apoyen, una a los dos laboratorios de docencia de la Licenciatura en Ciencias Genómicas en el Plantel Del Valle, y la otra a los laboratorios de docencia de Física e Ingeniería del Plantel Cuautepec, también en el turno matutino, por el periodo comprendido entre el 16 de septiembre y el 15 de diciembre del año en curso. </t>
+    </r>
+  </si>
+  <si>
+    <t>UACM/COMPLAN/EX7-53/2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La Comisión de Planeación (COMPLAN) de la Universidad Autónoma de la Ciudad de México, autoriza el uso de los recursos de la RANAD, por la cantidad de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$27,097.60 (veintisiete mil noventa y siete pesos 60/100) importe IVA incluido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a favor de la Unidad Responsable de Gasto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7100 Colegio de Ciencia y Tecnología</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Partida 3391</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Servicios profesionales, científicos, técnicos integrales y otros; número de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meta 23-0242-000-000-000- 7100-0135</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, nombre de la meta: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Desarrollar la interacción científica entre profesores y estudiantes a través de la organización de eventos académicos”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a efecto de que sean utilizados para la contratación de un servicio profesional de traducción simultánea para 2 conferencias que se llevarán a cabo el 15 de septiembre del presente año en el Plantel Cuautepec, en el marco del Simposio de Ingeniería. </t>
+    </r>
+  </si>
+  <si>
+    <t>UACM/COMPLAN/EX7-54/2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La Comisión de Planeación (COMPLAN) de la Universidad Autónoma de la Ciudad de México autoriza el uso de recursos de la Reserva para la Atención de Necesidades Administrativas (RANAD) por la cantidad de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>$151,768.00 (Ciento cincuenta y un mil setecientos sesenta y ocho pesos 00/100 M.N.), importe IVA incluido, menos retención del ISR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, para la contratación de cuatro personas prestadoras de servicios profesionales </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>por el periodo del 1 al 31 de diciembre de 2023,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de acuerdo a los procesos de contratación establecidos en la Norma de Adquisiciones, Arrendamientos y Prestación de Servicios para la Universidad Autónoma de la Ciudad de México, a favor de la Unidad Responsable de Gasto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5000 Oficina del Abogado General</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>partida 3391</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Servicios profesionales, científicos, técnicos integrales y otros), correspondiente al número de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>meta 23-0044-000-000-000-5000-0122</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, con nombre </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>“Asesorar jurídicamente a los órganos de gobierno, de administración y cualquier otra instancia de la Universidad”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>; lo anterior para atender los requerimientos de defensoría de oficio en materia de responsabilidades administrativas y coadyuvar con el ejercicio de las atribuciones conferidas a la Oficina del Abogado General.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El pleno de la COMPLAN aprobó destinar el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>importe incluyendo IVA de $313,617.60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Trescientos trece mil seiscientos diecisiete pesos 60/100 M.N.), menos retención del ISR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la Reserva para la Atención de Necesidades Administrativas (RANAD) a la unidad responsable de gasto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3100 Coordinación de Servicios Administrativos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, número de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> meta: 23-0238-000-000-000-3100-0031</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gestionar recursos humanos y materiales necesarios para la atención a la comunidad universitaria; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>partida presupuestal 3391</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, para la contratación de 5 prestadores de servicios profesionales, para la selección de bienes muebles para baja y destino final, por un periodo no mayor a 4 meses, del 1° de septiembre al 31 de diciembre, de acuerdo a los procesos de contratación establecidos en las Normas en Materia de Adquisiciones, Arrendamientos y Prestación de Servicios Profesionales de la UACM. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El pleno de la COMPLAN aprobó destinar el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>importe incluyendo IVA de $46,381.38 (Cuarenta y seis mil trescientos ochenta y un pesos 38/100 M.N.), menos retención del ISR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la Reserva para la Atención de Necesidades Administrativas (RANAD) a la unidad responsable de gasto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3100 Coordinación de Servicios Administrativos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, número de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> meta: 23-0238-000-000-000-3100-0031 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Gestionar recursos humanos y materiales necesarios para la atención a la comunidad universitaria; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>partida presupuestal 3391</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, para la contratación de 1 (un) prestador de servicios profesionales, para fortalecer los trabajos inherentes a los procesos de licitación pública, por un periodo no mayor a 3 meses, del 1° de octubre al 31 de diciembre de 2023, de acuerdo a los procesos de contratación establecidos en las Normas en Materia de Adquisiciones, Arrendamientos y Prestación de Servicios Profesionales de la UACM.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">  </t>
+      <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="13"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Asuntos Generales</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">La Comisión de Planeación aprobó el Orden del Día de la 3ª Sesión Ordinaria 2023. </t>
-  </si>
-  <si>
-    <t>UACM/COMPLAN/OR3 005/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Comisión de Planeación aprobó el acta de acuerdos de la 6ª Sesión Extraordinaria realizada el 20 de junio de 2023. </t>
-  </si>
-  <si>
-    <t>UACM/COMPLAN/OR3 006/2023</t>
-  </si>
-  <si>
-    <t>UACM/COMPLAN/OR3 007/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Mtro. José Alberto Benítez Oliva, Secretario Técnico de la COMPLAN y Coordinador de Planeación, reiteró el aviso de que el día 25 de agosto a las 12:00 PM se cierra el POA, esto para que las áreas lo consideren y suban su POA 2024 bajo las políticas establecidas en la COMPLAN: Si se tiene alguna duda podrán consultar el estatus de su proceso con la Coordinación de Planeación. Explicó también que vinculado al proceso de construcción del POA, está el que las áreas deberán solicitar sus requerimientos a las áreas concentradoras marcando copia a Planeación. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sobre el proceso de concentración de los requerimientos de bienes informáticos el Ing. Luis Alberto Aguilar Sánchez , Coordinador de Informática y Telecomunicaciones, informó que ha recibido requerimientos de Casa Libertad, Centro Histórico, Cuautepec, Colegio de Ciencias y Humanidades y también algunos de la comunidad universitaria y ya se observa una gran cantidad de bienes requeridos y aún faltan de recopilarse requerimientos de varias áreas, por lo que advierte que el techo presupuestal previsto para éste rubro será rebasado, por lo que la CIT como experto en el tema, hará un análisis de estos requerimientos y comunicará los se van a adquirir. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asimismo, informó que implementará un plan de acción con prioridades que se notificará a los planteles, en qué consistirá, qué va a cubrir y con qué prioridad; como el caso del equipamiento del edifico de gobierno que recibió el Plantel Cuautepec que se usará para oficinas, que incluye además de computadoras, escáneres e impresoras, algunos otros bastante costosos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicitó a las áreas que aún no han enviado sus requerimientos de bienes informáticos los envíen a la brevedad ala CIT, a fin de que pueda realizar su análisis y subir el POA en el plazo ya señalado. </t>
-  </si>
-  <si>
-    <t>Por otra parte, hizo un atento llamado para atender el problema del incremento de los consumibles de tóner, pidió que se identificara en los planteles dónde está su desperdicio o fuga en porqué se da. Comentó que la CIT ha identificado áreas que tienen casi una impresora por trabajador, estas prácticas generan un gasto excesivo para la universidad que registra junto con el incremento en el tóner, el incremento en el gasto de papel, así como en la basura contaminante y perjudicial para el medio ambiente. Anunció que va a hacer un plan de acción para restringir el uso excesivo de estos materiales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalmente explicó comentó que el POA de la CIT es muy alto, básicamente porque considera los mantenimientos especializados indispensables para los servicios que requiere la comunidad, porque en términos porcentuales el presupuesto que utiliza la operación de la CIT es del 4%. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para cerrar el tema, el Mtro. Benítez solicitó a las áreas concentradoras racionalizar y jerarquizar en sus POA’s los requerimientos que les sean solicitados. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Rectora, Dra. Tania Hogla Rodríguez Mora, comentó que además la UACM está comprometida con el cumplimiento de la Ley de Austeridad Presupuestal y que el consumo de papel es justamente uno de los conceptos más observados y ya regulados. Destacó en general la obligación de todos de considerar el ahorrar de este y otros materiales básicos de la operación cotidiana de la universidad y evitar su desperdicio. </t>
-  </si>
-  <si>
-    <t>El Arq. Hugo Enrique De Lucio Torres, Coordinador de Obras y Conservación, informó que la mayoría de las áreas de la universidad ya tienen conocimiento de cómo realizar la integración del PAO (Programa Anual de Obras), para ello les se les hizo llegar el PAO del año pasado con todas sus requisiciones de servicios y necesidades, se les pidió que identifiquen y prioricen sus necesidades, porque la COC no cuenta con la capacidad económica ni la capacidad de desarrollar todas las actividades. Señaló que lo más importante del PAO es que se trabaje en conjunto, como ya lo han estado haciendo los coordinadores de colegio que se acercan a los coordinadores de plantel y esto a su vez con el consejo de plantel para que la COC sólo tenga un PAO por plantel. Es muy importante que la COC cuente el PAO de cada plantel para trabajar coordinadamente con la CIT, a efecto de poder realizar de forma programada, las instalaciones requeridas por los equipos informáticos que se van a entregar.</t>
-  </si>
-  <si>
-    <t>Primera Sesión Extraordinaria 2023</t>
-  </si>
-  <si>
-    <t>Séptima Sesión Extraordinaria 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revisión y en su caso aprobación del Acta de la 3ra. Sesión Ordinaria de la COMPLAN. </t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de prestadores de Servicios Profesionales. Presenta la Mtra. Erika Lorena Álvarez Ramírez, Coordinadora del Colegio de Ciencia y Tecnología.</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de un prestador de Servicios Profesionales. Presenta la Mtra. Erika Lorena Álvarez Ramírez, Coordinadora del Colegio de Ciencia y Tecnología.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación  de un prestador de Servicios Profesionales.  Presenta  la Mtra. Erika Lorena Álvarez Ramírez, Coordinadora del Colegio de Ciencia y Tecnología. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discusión y en su caso aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de prestadores de Servicios Profesionales. Presenta el Lic. Bernardo Donato Hidalgo Tobón, Abogado General </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Comisión de Planeación aprueba el Orden del Día de la 7ª Sesión Extraordinaria 2023. </t>
-  </si>
-  <si>
-    <t>UACM/COMPLAN/EX7-51/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Comisión de Planeación aprueba el acta de acuerdos de la 3ª Sesión Ordinaria realizada el 24 de agosto de 2023. </t>
-  </si>
-  <si>
-    <t>UACM/COMPLAN/EX7-52/2023</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La Comisión de Planeación (COMPLAN) de la Universidad Autónoma de la Ciudad de México, autoriza el uso de los recursos de la RANAD, por la cantidad </t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ASUNTOS GENERALES </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Advirtió la importancia de que todo lo que las áreas necesiten o vayan a necesitar, estén dentro del PAO de </t>
     </r>
     <r>
       <rPr>
@@ -6730,576 +7073,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>de $145,464.00 (ciento cuarenta y cinco mil cuatrocientos sesenta y cuatro 00/100) importe IVA incluido, menos retenciones del ISR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, a favor de la Unidad Responsable de Gasto </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7100 Colegio de Ciencia y Tecnología</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Partida 3391</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> número de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meta 23-0069-000-000-000-7100-0058</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, nombre de la meta: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“Apoyar la formación de los estudiantes del Colegio equipando los laboratorios de docencia para el desarrollo de sus prácticas”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, a efecto de que sean utilizados para la contratación de dos personas prestadoras de servicios profesionales que apoyen, una a los dos laboratorios de docencia de la Licenciatura en Ciencias Genómicas en el Plantel Del Valle, y la otra a los laboratorios de docencia de Física e Ingeniería del Plantel Cuautepec, también en el turno matutino, por el periodo comprendido entre el 16 de septiembre y el 15 de diciembre del año en curso. </t>
-    </r>
-  </si>
-  <si>
-    <t>UACM/COMPLAN/EX7-53/2023</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La Comisión de Planeación (COMPLAN) de la Universidad Autónoma de la Ciudad de México, autoriza el uso de los recursos de la RANAD, por la cantidad de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$27,097.60 (veintisiete mil noventa y siete pesos 60/100) importe IVA incluido</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, a favor de la Unidad Responsable de Gasto </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7100 Colegio de Ciencia y Tecnología</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Partida 3391</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Servicios profesionales, científicos, técnicos integrales y otros; número de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meta 23-0242-000-000-000- 7100-0135</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, nombre de la meta: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“Desarrollar la interacción científica entre profesores y estudiantes a través de la organización de eventos académicos”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, a efecto de que sean utilizados para la contratación de un servicio profesional de traducción simultánea para 2 conferencias que se llevarán a cabo el 15 de septiembre del presente año en el Plantel Cuautepec, en el marco del Simposio de Ingeniería. </t>
-    </r>
-  </si>
-  <si>
-    <t>UACM/COMPLAN/EX7-54/2023</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La Comisión de Planeación (COMPLAN) de la Universidad Autónoma de la Ciudad de México autoriza el uso de recursos de la Reserva para la Atención de Necesidades Administrativas (RANAD) por la cantidad de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>$151,768.00 (Ciento cincuenta y un mil setecientos sesenta y ocho pesos 00/100 M.N.), importe IVA incluido, menos retención del ISR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, para la contratación de cuatro personas prestadoras de servicios profesionales </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>por el periodo del 1 al 31 de diciembre de 2023,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> de acuerdo a los procesos de contratación establecidos en la Norma de Adquisiciones, Arrendamientos y Prestación de Servicios para la Universidad Autónoma de la Ciudad de México, a favor de la Unidad Responsable de Gasto </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>5000 Oficina del Abogado General</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>partida 3391</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Servicios profesionales, científicos, técnicos integrales y otros), correspondiente al número de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>meta 23-0044-000-000-000-5000-0122</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, con nombre </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>“Asesorar jurídicamente a los órganos de gobierno, de administración y cualquier otra instancia de la Universidad”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>; lo anterior para atender los requerimientos de defensoría de oficio en materia de responsabilidades administrativas y coadyuvar con el ejercicio de las atribuciones conferidas a la Oficina del Abogado General.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El pleno de la COMPLAN aprobó destinar el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>importe incluyendo IVA de $313,617.60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Trescientos trece mil seiscientos diecisiete pesos 60/100 M.N.), menos retención del ISR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de la Reserva para la Atención de Necesidades Administrativas (RANAD) a la unidad responsable de gasto </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3100 Coordinación de Servicios Administrativos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, número de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> meta: 23-0238-000-000-000-3100-0031</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Gestionar recursos humanos y materiales necesarios para la atención a la comunidad universitaria; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>partida presupuestal 3391</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, para la contratación de 5 prestadores de servicios profesionales, para la selección de bienes muebles para baja y destino final, por un periodo no mayor a 4 meses, del 1° de septiembre al 31 de diciembre, de acuerdo a los procesos de contratación establecidos en las Normas en Materia de Adquisiciones, Arrendamientos y Prestación de Servicios Profesionales de la UACM. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El pleno de la COMPLAN aprobó destinar el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>importe incluyendo IVA de $46,381.38 (Cuarenta y seis mil trescientos ochenta y un pesos 38/100 M.N.), menos retención del ISR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de la Reserva para la Atención de Necesidades Administrativas (RANAD) a la unidad responsable de gasto </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3100 Coordinación de Servicios Administrativos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, número de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> meta: 23-0238-000-000-000-3100-0031 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Gestionar recursos humanos y materiales necesarios para la atención a la comunidad universitaria; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>partida presupuestal 3391</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, para la contratación de 1 (un) prestador de servicios profesionales, para fortalecer los trabajos inherentes a los procesos de licitación pública, por un periodo no mayor a 3 meses, del 1° de octubre al 31 de diciembre de 2023, de acuerdo a los procesos de contratación establecidos en las Normas en Materia de Adquisiciones, Arrendamientos y Prestación de Servicios Profesionales de la UACM.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ASUNTOS GENERALES </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Advirtió la importancia de que todo lo que las áreas necesiten o vayan a necesitar, estén dentro del PAO de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>forma priorizada</t>
     </r>
     <r>
@@ -7317,27 +7090,6 @@
     <t>Octava Sesión Extraordinaria 2023</t>
   </si>
   <si>
-    <t>21 de septiembre de 2023</t>
-  </si>
-  <si>
-    <t>Revisión y en su caso arpobación del Acta de la 7a. Sesión Extraordinaria de la COMPLAN</t>
-  </si>
-  <si>
-    <t>Aprobación del Calendario Bianual 2024 - 2025 propuesto por la Coordinación Académica</t>
-  </si>
-  <si>
-    <t>Presentación de la Validación de Plantilla Vía WEB,  propuesta por la Coordinación de Servicios Administrativos</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de dos prestadores de Servicios Profesionales.</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la prorróga de cinco y contratación de un prestador de Servicios Profesionales.</t>
-  </si>
-  <si>
-    <t>Punto informativo sobre el POA 2024</t>
-  </si>
-  <si>
     <t>UACM/COMPLAN/EX7-056/2023</t>
   </si>
   <si>
@@ -7374,9 +7126,6 @@
     <t>Autorización de la creación de plazas de jardinero. Al respecto comunicó que este punto requiere de dos dictámenes, uno de pertinencia y otro de suficiencia presupuestal: la administración los valoró y determinó que esta creación es pertinente y que existe la suficiencia presupuestal para implementarla. Por lo que ahora la autorización corresponde al Consejo Universitario, quien ha sido informado en tiempo y forma sobre este asunto y se le ha entregado el informe y documentación respectiva a la Comisión de Planeación Institucional Desarrollo y Gestión universitaria y a la Comisión de Hacienda del Consejo Universitario. Comunicó también, que por este tema existe otro emplazamiento a huelga para el próximo 18 de abril.</t>
   </si>
   <si>
-    <t>Punto informativo sobre la migración del sistema integral de información unificada (SIIIU)</t>
-  </si>
-  <si>
     <t xml:space="preserve">El Mtro. José Alberto Benítez Oliva, informó que la Coordinación de Planeación envió a cada UR (Unidad Responsable de Gasto) su POA aprobado para el presente ejercicio, así como una circular en donde les pide que no ejercer nada del capítulo del gasto 5000, Muebles ni tampoco informática (5151), ya que las áreas concentradoras de Servicios Administrativos e Informática y Telecomunicaciones, </t>
   </si>
   <si>
@@ -7389,46 +7138,16 @@
     <t>Se explicó finalmente, la importancia que éste trabajo tiene para la conformación del Manual Administrativo y para solventar observaciones de entidades de control internas y externas a la institución.</t>
   </si>
   <si>
-    <t xml:space="preserve">Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD presentada por la Contraloría General para la contratación de servicios profesionales </t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de Servicios profesionales para apoyo en baja de bienes.</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitudes recursos económicos de la RANAD, para la contratación de servicios profesionales, científicos y técnicos integrales</t>
-  </si>
-  <si>
     <t>La Comisión de Planeación de la Universidad Autónoma de la Ciudad de México, autoriza el uso de los recursos de la RANAD, por la cantidad de $161,472.00 (ciento sesenta y un mil cuatrocientos setenta y dos pesos 007100 M.N.) importe IVA incluido menos retenciones del ISR, para contratación de servicios profesionales; a favor de la Unidad Responsable de Gasto 6000 Contraloría General, Partida 3311; número de meta 230053-000-000-000-6000-065, nombre de la meta "Analizar y resolver los asuntos relacionados con el procedimiento de responsabilidades administrativas disciplinarias, aplicando en tiempo y forma el sistema anticorrupción mediante las leyes vigentes, en el ejercicio en curso", a efecto de que sean utilizados para la contratación de una persona prestadora de servicios profesionales; esto es una especialista en la substanciación de procedimientos de responsabilidades administrativas para Apoyo del Área Substanciadora. Por el lapso de seis meses del periodo comprendido del 16 de abril al 15 de octubre del año en curso; como parte de la estrategia urgente para la atención y seguimiento de la sustanciación de los procedimientos antes señalados</t>
   </si>
   <si>
     <t>El Pleno de la COMPLAN acuerda destinar el importe de $1,388,752.00 (Un millón trescientos ochenta y ocho mil, setecientos cincuenta y dos pesos 00/100 M.N.) importe IVA incluido menos retenciones del ISR, de la Reserva para la atención de necesidades administrativas (RANAD), para la Unidad Responsable de Gasto 3100, Coordinación Servicios Administrativos, Número de Meta 23-0238-000-000-000-3100-0031 "Gestionar recursos humanos y materiales necesarios para la atención a la comunidad universitaria", partida presupuestal 3391 para cubrir la necesidad de contratación de cinco personas Técnicos en Urgencias Médicas, durante 8 meses para cuatro personas y de 9 meses para una persona, en el periodo de abril a diciembre del presente año</t>
   </si>
   <si>
-    <t>Discusión y en su caso aprobación por parte de la COMPLAN de la solicitud de recursos de la RANAD, presentada por la Coordinación de Cuautepec para la contratación de servicios de señalética</t>
-  </si>
-  <si>
     <t>El pleno de la COMPLAN acuerda destinar hasta por un monto de $375,666.00 (Trescientos setenta y cinco mil, seiscientos sesenta y seis pesos 00/100 M.N.) (monto IVA incluido menos retención del ISR), -de la Reserva para la Atención de Necesidades Administrativas (RANAD)- a la Unidad Responsable de Gastos 3700 Coordinación de Comunicación, Número de Meta 22-0177-000-000-000-3700-0103_ Cobertura informativa, para la contratación de Prestadores de Servicios Profesionales en la partida presupuestal 3391 "Servicios profesionales, científicos integrales y otros" para poder cubrir servicios profesionales hasta por un periodo de ocho meses con quince días, para la contratación de tres (3) prestadores de servicios profesionales pudiendo empezar desde el 17 de abril al 31 de diciembre de 2023.</t>
   </si>
   <si>
     <t>Cuarta Sesión Ordinaria 2023</t>
-  </si>
-  <si>
-    <t>18  de octubre de 2023</t>
-  </si>
-  <si>
-    <t>Revisión y en caso aprobación del Acta de la 8a. Sesión Extraordinaria de la COMPLAN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contración de servicio de impresión de 6 materiales bibliográficos de la Biblioteca del Estudiante. </t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de un prestador de Servicios Profesionales para el diagnóstico de la situación de las 6 áreas de atención médica</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de Servicios Profesionales de impresión para publicación de materiales de difusión de la investigación "Prácticas de la Medicina Tradicional y la Atención en Padecimientos de Salud de la Población de Sectores Populares"</t>
-  </si>
-  <si>
-    <t>Discusión y en su caso, aprobación, por parte de la Comisión de Planeación (COMPLAN), a la solicitud de recursos económicos de la RANAD, para la contratación de Servicios Profesionales de impresión para publicación de materiales de difusión de la investigación "herbario Casa Libertad"</t>
   </si>
   <si>
     <t>UACM/COMPLAN/OR4 008/2023</t>
@@ -7474,7 +7193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7723,12 +7442,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -7837,7 +7550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8043,16 +7756,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9647,7 +9354,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -9702,7 +9409,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -9757,7 +9464,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -9812,7 +9519,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -9867,7 +9574,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -9922,7 +9629,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -10026,8 +9733,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>272</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -10081,8 +9788,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>272</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -10136,8 +9843,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>272</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -10191,8 +9898,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>272</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -10246,8 +9953,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>272</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -10301,8 +10008,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>272</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -10356,13 +10063,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -12481,7 +12188,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
         <v>303</v>
       </c>
@@ -12729,7 +12436,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="7" t="s">
@@ -13033,7 +12740,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A192" s="18"/>
       <c r="B192" s="18"/>
       <c r="C192" s="7" t="s">
@@ -14115,102 +13822,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="80" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="80" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="80" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="80" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="80" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="80" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="80" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="80" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="80" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="80" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="80" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="80" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="80" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="80" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="80" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="80" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="80" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="80" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="80" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="80" t="s">
         <v>449</v>
       </c>
     </row>
@@ -14704,8 +14411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15170,7 +14877,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="57" t="s">
@@ -15450,7 +15157,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="60" t="s">
@@ -16296,7 +16003,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A180" s="18"/>
       <c r="B180" s="18"/>
       <c r="C180" s="6"/>
@@ -16387,17 +16094,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5679EFAC-8C51-9F43-BBDA-A848E17EA301}">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A41" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="85" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -16411,7 +16118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>533</v>
       </c>
@@ -16422,14 +16129,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="18" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="16" t="s">
@@ -16437,7 +16144,7 @@
       </c>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="16" t="s">
@@ -16456,14 +16163,14 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="6" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="6" t="s">
@@ -16502,7 +16209,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
@@ -16534,21 +16241,21 @@
         <v>672</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="27" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="27" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="27" t="s">
@@ -16597,856 +16304,202 @@
         <v>691</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="8" t="s">
-        <v>692</v>
+      <c r="C26" s="58" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="58" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="8" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="58" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="52" t="s">
-        <v>696</v>
+      <c r="C28" s="58" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="59" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="58" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="8" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="27" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="59" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="C33" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="8" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
-        <v>768</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="28" t="s">
-        <v>773</v>
+      <c r="C34" s="16" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="10" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="27" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="15" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="7" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="15" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="13" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="7" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="16"/>
-    </row>
-    <row r="46" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="16" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="16" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="16" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="16" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="67" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="28" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="67" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="16" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C48" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="41" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="16" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="28" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="28" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="28" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="10" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="10" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="10" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="10" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="8" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="10" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="28" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="28" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="10" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="10" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="10" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="10" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="10" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="28" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="28" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="29" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="62" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="57" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="57" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="57" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="57" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="57" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="57" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="63" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="63" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="63" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="63" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="63" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="63" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="63" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="54" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="61" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="57" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="185.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="57" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="57" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="57" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="64" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="57" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="57" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="57" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="62" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="8" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="8" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="8" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="8" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="8" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="8" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="8" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="65" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="65" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="65" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="65" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="28" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="16" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="28" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="16" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="28" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="16" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="28" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="16" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="13" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="13" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="16" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="8" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="13" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="8" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="8" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="67" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="8" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="67" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="8" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="8" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="8" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="9" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A133" s="18"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="8" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="8" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="67" t="s">
+      <c r="C49" s="67" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="160" x14ac:dyDescent="0.2">
-      <c r="A136" s="18"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="8" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="18"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="9" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="9" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A138" s="18"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="8" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="18"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="67" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="67" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="18"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="8" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="18"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="68" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="18"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="28" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A144" s="18"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="8" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="18"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="6"/>
-    </row>
-    <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C146" s="51"/>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C52" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17459,2388 +16512,1617 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:I273"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="D232" sqref="D232"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="49.5" customWidth="1"/>
-    <col min="4" max="4" width="85" customWidth="1"/>
+    <col min="2" max="2" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="18" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="16" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="29" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="28" t="s">
+        <v>790</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="13" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="78" t="s">
+        <v>996</v>
+      </c>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="10" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="10" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="13" t="s">
-        <v>787</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="15" t="s">
-        <v>788</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="10" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="39" t="s">
-        <v>789</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="15" t="s">
-        <v>790</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="13" t="s">
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="8" t="s">
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="80" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="10" t="s">
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="112" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="7" t="s">
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="10" t="s">
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="112" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="8" t="s">
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="10" t="s">
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="8" t="s">
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="8" t="s">
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="10" t="s">
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="8" t="s">
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="8" t="s">
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="8" t="s">
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="8" t="s">
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="8" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="8" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="F28" s="25"/>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="8" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="13" t="s">
         <v>817</v>
       </c>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="8" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="13" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="8" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="8" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="8" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="8" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="F33" s="25"/>
-    </row>
-    <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="B34" s="5" t="s">
+    </row>
+    <row r="45" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="8" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="7" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="7" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="15" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="192" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="15" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="15" t="s">
+    </row>
+    <row r="49" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="15" t="s">
-        <v>827</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="15" t="s">
-        <v>828</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="15" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="15" t="s">
-        <v>829</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="8" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="6" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="8" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="6" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="160" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="8" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="B50" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="8" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="22" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" s="13" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="14" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="74" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="13" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="16" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="13" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+      <c r="B64" s="13" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="14" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="14" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="21" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="D51" s="8" t="s">
+    <row r="70" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="15" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="D53" s="22" t="s">
+    <row r="71" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="6" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="15" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="D54" s="6" t="s">
+    <row r="73" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+      <c r="B74" s="15" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="13" t="s">
+    <row r="75" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="6" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" s="15" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+    <row r="77" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="6" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="15" t="s">
         <v>849</v>
       </c>
-      <c r="B56" s="5" t="s">
+    </row>
+    <row r="79" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="B79" s="6" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="53" t="s">
         <v>851</v>
       </c>
-      <c r="D56" s="6" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+      <c r="B82" s="41" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="6" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="192" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="28" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="4"/>
+      <c r="B85" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+      <c r="A86" s="4"/>
+      <c r="B86" s="28" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="4"/>
+      <c r="B87" s="6" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4"/>
+      <c r="B88" s="8" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="4"/>
+      <c r="B89" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A90" s="4"/>
+      <c r="B90" s="8" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="4"/>
+      <c r="B91" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A92" s="4"/>
+      <c r="B92" s="8" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="4"/>
+      <c r="B93" s="6" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A94" s="4"/>
+      <c r="B94" s="8" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A95" s="4"/>
+      <c r="B95" s="8" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="4"/>
+      <c r="B96" s="6" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+      <c r="A97" s="4"/>
+      <c r="B97" s="8" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="5"/>
+      <c r="B98" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A99" s="5"/>
+      <c r="B99" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="5"/>
+      <c r="B100" s="6" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="5"/>
+      <c r="B101" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A102" s="5"/>
+      <c r="B102" s="8" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A104" s="5"/>
+      <c r="B104" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A105" s="5"/>
+      <c r="B105" s="8" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="5"/>
+      <c r="B106" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5"/>
+      <c r="B107" s="8" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="5"/>
+      <c r="B108" s="6" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="180" x14ac:dyDescent="0.2">
+      <c r="A109" s="5"/>
+      <c r="B109" s="52" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="5"/>
+      <c r="B110" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5"/>
+      <c r="B111" s="8" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="4"/>
+      <c r="B112" s="6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A113" s="4"/>
+      <c r="B113" s="8" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="34"/>
+      <c r="B114" s="6" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="240.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="34"/>
+      <c r="B115" s="8" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="34"/>
+      <c r="B116" s="10" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="34"/>
+      <c r="B117" s="8" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A118" s="34"/>
+      <c r="B118" s="8" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A119" s="34"/>
+      <c r="B119" s="8" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="34"/>
+      <c r="B120" s="8" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A121" s="34"/>
+      <c r="B121" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A123" s="5"/>
+      <c r="B123" s="28" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="5"/>
+      <c r="B124" s="27" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="5"/>
+      <c r="B125" s="15" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+      <c r="B126" s="27" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A127" s="5"/>
+      <c r="B127" s="15" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="5"/>
+      <c r="B128" s="27" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A129" s="5"/>
+      <c r="B129" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="5"/>
+      <c r="B130" s="27" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="198.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="5"/>
+      <c r="B131" s="8" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="5"/>
+      <c r="B132" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="5"/>
+      <c r="B133" s="13" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="5"/>
+      <c r="B134" s="27" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A135" s="5"/>
+      <c r="B135" s="13" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="5"/>
+      <c r="B136" s="27" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A137" s="5"/>
+      <c r="B137" s="13" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="4"/>
+      <c r="B138" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A139" s="4"/>
+      <c r="B139" s="8" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="4"/>
+      <c r="B141" s="13" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="4"/>
+      <c r="B142" s="6" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A143" s="4"/>
+      <c r="B143" s="13" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="4"/>
+      <c r="B144" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A145" s="4"/>
+      <c r="B145" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="4"/>
+      <c r="B147" s="13" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4"/>
+      <c r="B148" s="6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="4"/>
+      <c r="B149" s="41" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="4"/>
+      <c r="B150" s="16" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="4"/>
+      <c r="B151" s="8" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="4"/>
+      <c r="B152" s="16" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="4"/>
+      <c r="B153" s="8" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="4"/>
+      <c r="B154" s="16" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="215.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="4"/>
+      <c r="B155" s="75" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="5"/>
+      <c r="B157" s="14" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="5"/>
+      <c r="B158" s="6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A159" s="5"/>
+      <c r="B159" s="13" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="5"/>
+      <c r="B160" s="6" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A161" s="5"/>
+      <c r="B161" s="13" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A162" s="5"/>
+      <c r="B162" s="13" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="5"/>
+      <c r="B163" s="6" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+      <c r="A164" s="5"/>
+      <c r="B164" s="22" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="5"/>
+      <c r="B165" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A166" s="5"/>
+      <c r="B166" s="15" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="5"/>
+      <c r="B167" s="15" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="5"/>
+      <c r="B168" s="6"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="5"/>
+      <c r="B169" s="6"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="5"/>
+      <c r="B170" s="6"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="4"/>
+      <c r="B171" s="8"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="4"/>
+      <c r="B172" s="8"/>
+    </row>
+    <row r="173" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A173" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A174" s="4"/>
+      <c r="B174" s="28" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="4"/>
+      <c r="B175" s="16" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A176" s="4"/>
+      <c r="B176" s="41" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="4"/>
+      <c r="B177" s="16" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A178" s="5"/>
+      <c r="B178" s="41" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A179" s="4"/>
+      <c r="B179" s="28" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A180" s="18"/>
+      <c r="B180" s="41" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="4"/>
+      <c r="B181" s="16" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A182" s="4"/>
+      <c r="B182" s="8" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A183" s="4"/>
+      <c r="B183" s="8" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A184" s="5"/>
+      <c r="B184" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A185" s="4"/>
+      <c r="B185" s="13" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A186" s="4"/>
+      <c r="B186" s="13" t="s">
         <v>938</v>
       </c>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="32" t="s">
-        <v>644</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="32" t="s">
-        <v>852</v>
-      </c>
-      <c r="D58" s="6" t="s">
+    </row>
+    <row r="187" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A187" s="18"/>
+      <c r="B187" s="28" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="32" t="s">
-        <v>853</v>
-      </c>
-      <c r="D59" s="74" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="32" t="s">
-        <v>854</v>
-      </c>
-      <c r="D60" s="6" t="s">
+    <row r="188" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A188" s="4"/>
+      <c r="B188" s="28" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A189" s="4"/>
+      <c r="B189" s="8" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="32" t="s">
-        <v>855</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="32" t="s">
-        <v>856</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="D63" s="13" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="13" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="14" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="4" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="4" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="14" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="21" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="15" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="6" t="s">
+    <row r="190" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A190" s="4"/>
+      <c r="B190" s="8" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="15" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="6" t="s">
+    <row r="191" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A191" s="4"/>
+      <c r="B191" s="8" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="15" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="6" t="s">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="4"/>
+      <c r="B192" s="10" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="15" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="6" t="s">
+    <row r="193" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A193" s="4"/>
+      <c r="B193" s="8" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="4"/>
+      <c r="B194" s="8" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A195" s="4"/>
+      <c r="B195" s="58" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="15" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="57" t="s">
-        <v>875</v>
-      </c>
-      <c r="D80" s="53" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="57" t="s">
-        <v>876</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="57" t="s">
-        <v>877</v>
-      </c>
-      <c r="D82" s="41" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="57" t="s">
-        <v>878</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="192" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="61" t="s">
-        <v>879</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="57" t="s">
-        <v>880</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="176" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="61" t="s">
-        <v>881</v>
-      </c>
-      <c r="D86" s="28" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="57" t="s">
-        <v>882</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="181.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="61" t="s">
-        <v>883</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="53" t="s">
-        <v>884</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="75" t="s">
-        <v>885</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="6" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="8" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="6" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="8" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="8" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="6" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="160" x14ac:dyDescent="0.2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="8" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="6" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="8" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="6" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="8" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="8" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="6" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="8" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="8" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="6" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="6" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="180" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="52" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="6" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="8" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="6" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="8" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="34"/>
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="6" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="240.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="34"/>
-      <c r="B115" s="34"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="8" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="34"/>
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="10" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="34"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="8" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A118" s="34"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A119" s="34"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="8" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A120" s="34"/>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="8" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A121" s="34"/>
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="8" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>851</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="60" t="s">
-        <v>770</v>
-      </c>
-      <c r="D123" s="28" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="60" t="s">
-        <v>917</v>
-      </c>
-      <c r="D124" s="27" t="s">
+    <row r="196" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A196" s="4"/>
+      <c r="B196" s="28" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="32" t="s">
-        <v>918</v>
-      </c>
-      <c r="D125" s="15" t="s">
+    <row r="197" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A197" s="4"/>
+      <c r="B197" s="77" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A198" s="18"/>
+      <c r="B198" s="57" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="32" t="s">
-        <v>919</v>
-      </c>
-      <c r="D126" s="27" t="s">
+    <row r="199" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A199" s="4"/>
+      <c r="B199" s="57" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="32" t="s">
-        <v>919</v>
-      </c>
-      <c r="D127" s="15" t="s">
+    <row r="200" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A200" s="4"/>
+      <c r="B200" s="57" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="32" t="s">
-        <v>920</v>
-      </c>
-      <c r="D128" s="27" t="s">
+    <row r="201" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A201" s="5" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="128" x14ac:dyDescent="0.2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="32" t="s">
-        <v>921</v>
-      </c>
-      <c r="D129" s="7" t="s">
+      <c r="B201" s="16" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="32" t="s">
-        <v>922</v>
-      </c>
-      <c r="D130" s="27" t="s">
+    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A202" s="4"/>
+      <c r="B202" s="13" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="198.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="8" t="s">
+    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="4"/>
+      <c r="B203" s="16" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="27" t="s">
+    <row r="204" spans="1:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="4"/>
+      <c r="B204" s="41" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="13" t="s">
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="4"/>
+      <c r="B205" s="16" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="27" t="s">
+    <row r="206" spans="1:2" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="4"/>
+      <c r="B206" s="8" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="4"/>
+      <c r="B207" s="16" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="128" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="13" t="s">
+    <row r="208" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A208" s="4"/>
+      <c r="B208" s="8" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="4"/>
+      <c r="B209" s="68" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="4"/>
+      <c r="B210" s="76" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="27" t="s">
+    <row r="211" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A211" s="4"/>
+      <c r="B211" s="76" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="128" x14ac:dyDescent="0.2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="13" t="s">
+    <row r="212" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="4"/>
+      <c r="B212" s="76" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="8" t="s">
+    <row r="213" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A213" s="4"/>
+      <c r="B213" s="76" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="s">
+    <row r="214" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A214" s="4"/>
+      <c r="B214" s="76" t="s">
         <v>960</v>
       </c>
-      <c r="B140" s="5" t="s">
+    </row>
+    <row r="215" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A215" s="4"/>
+      <c r="B215" s="76" t="s">
         <v>961</v>
       </c>
-      <c r="C140" s="30" t="s">
-        <v>851</v>
-      </c>
-      <c r="D140" s="6" t="s">
+    </row>
+    <row r="216" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A216" s="4"/>
+      <c r="B216" s="76" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A217" s="4"/>
+      <c r="B217" s="76" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+      <c r="A218" s="4"/>
+      <c r="B218" s="76" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="8" t="s">
-        <v>963</v>
-      </c>
-      <c r="D143" s="13" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="6" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="8" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="57" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D147" s="13" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="57" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="57" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D149" s="41" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="57" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D150" s="16" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="61" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="57"/>
-      <c r="D152" s="16" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="57"/>
-      <c r="D153" s="8" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="57"/>
-      <c r="D154" s="16" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="215.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="57"/>
-      <c r="D155" s="77" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A156" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C156" s="30" t="s">
-        <v>851</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="32" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="32" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="32" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D159" s="13" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="32" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="32" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="32" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D162" s="13" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="32"/>
-      <c r="D163" s="6" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="160" x14ac:dyDescent="0.2">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="22" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="32"/>
-      <c r="D165" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="32"/>
-      <c r="D166" s="15" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="32"/>
-      <c r="D167" s="15" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="6"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="32"/>
-      <c r="D169" s="6"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="32"/>
-      <c r="D170" s="6"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="8"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="8"/>
-    </row>
-    <row r="173" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A173" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>971</v>
-      </c>
-      <c r="C173" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="16" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="60" t="s">
-        <v>551</v>
-      </c>
-      <c r="D174" s="28" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="57" t="s">
-        <v>972</v>
-      </c>
-      <c r="D175" s="16" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="57" t="s">
-        <v>973</v>
-      </c>
-      <c r="D176" s="41" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="57" t="s">
-        <v>974</v>
-      </c>
-      <c r="D177" s="16" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="76" t="s">
-        <v>975</v>
-      </c>
-      <c r="D178" s="41" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="61" t="s">
-        <v>976</v>
-      </c>
-      <c r="D179" s="28" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A180" s="18"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="61" t="s">
-        <v>977</v>
-      </c>
-      <c r="D180" s="41" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="57" t="s">
-        <v>978</v>
-      </c>
-      <c r="D181" s="16" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="15" t="s">
+    <row r="219" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A219" s="4"/>
+      <c r="B219" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="D183" s="8" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A184" s="5"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="15" t="s">
-        <v>980</v>
-      </c>
-      <c r="D184" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="15" t="s">
-        <v>981</v>
-      </c>
-      <c r="D185" s="13" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="12" t="s">
+    </row>
+    <row r="220" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A220" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B220" s="16" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A221" s="4"/>
+      <c r="B221" s="57" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="4"/>
+      <c r="B222" s="16" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A223" s="4"/>
+      <c r="B223" s="13" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A224" s="4"/>
+      <c r="B224" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A225" s="4"/>
+      <c r="B225" s="8" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A226" s="4"/>
+      <c r="B226" s="16" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A227" s="18"/>
+      <c r="B227" s="8" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="4"/>
+      <c r="B228" s="16" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A229" s="4"/>
+      <c r="B229" s="8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="4"/>
+      <c r="B230" s="16" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A231" s="18"/>
+      <c r="B231" s="79" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="4"/>
+      <c r="B232" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D186" s="13" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A187" s="18"/>
-      <c r="B187" s="18"/>
-      <c r="C187" s="15" t="s">
-        <v>982</v>
-      </c>
-      <c r="D187" s="28" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="15" t="s">
-        <v>983</v>
-      </c>
-      <c r="D188" s="28" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="15" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="15"/>
-      <c r="D190" s="8" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="15"/>
-      <c r="D191" s="8" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="15"/>
-      <c r="D192" s="10" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="15"/>
-      <c r="D193" s="8" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="4"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="8" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="15"/>
-      <c r="D195" s="58" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A196" s="4"/>
-      <c r="B196" s="4"/>
-      <c r="C196" s="15"/>
-      <c r="D196" s="28" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="79" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A198" s="18"/>
-      <c r="B198" s="18"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="57" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="57" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="57" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A201" s="5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C201" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="16" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="57" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D202" s="13" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="57" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D203" s="16" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="57" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D204" s="41" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="64" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D205" s="16" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="61" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="15"/>
-      <c r="D207" s="16" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="15"/>
-      <c r="D208" s="8" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="15"/>
-      <c r="D209" s="68" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="4"/>
-      <c r="B210" s="4"/>
-      <c r="C210" s="15"/>
-      <c r="D210" s="78" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="15"/>
-      <c r="D211" s="78" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="4"/>
-      <c r="B212" s="4"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="78" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
-      <c r="C213" s="15"/>
-      <c r="D213" s="78" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A214" s="4"/>
-      <c r="B214" s="4"/>
-      <c r="C214" s="15"/>
-      <c r="D214" s="78" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
-      <c r="C215" s="15"/>
-      <c r="D215" s="78" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="15"/>
-      <c r="D216" s="78" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="15"/>
-      <c r="D217" s="78" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="160" x14ac:dyDescent="0.2">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="15"/>
-      <c r="D218" s="78" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
-      <c r="C219" s="15"/>
-      <c r="D219" s="8" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A220" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C220" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="D220" s="16" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="15" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D221" s="57" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="15" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D222" s="16" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="15" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D223" s="13" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="15" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D224" s="16" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="128" x14ac:dyDescent="0.2">
-      <c r="A225" s="4"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="15" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="4"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="15"/>
-      <c r="D226" s="16" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="128" x14ac:dyDescent="0.2">
-      <c r="A227" s="18"/>
-      <c r="B227" s="18"/>
-      <c r="C227" s="6"/>
-      <c r="D227" s="8" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="4"/>
-      <c r="B228" s="4"/>
-      <c r="C228" s="15"/>
-      <c r="D228" s="16" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A229" s="4"/>
-      <c r="B229" s="4"/>
-      <c r="C229" s="15"/>
-      <c r="D229" s="8" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A230" s="4"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="15"/>
-      <c r="D230" s="16" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A231" s="18"/>
-      <c r="B231" s="18"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="81" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="4"/>
-      <c r="B232" s="4"/>
-      <c r="C232" s="15"/>
-      <c r="D232" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
-      <c r="B233" s="4"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="65"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B233" s="65"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
-      <c r="B234" s="4"/>
-      <c r="C234" s="15"/>
-      <c r="D234" s="65"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B234" s="65"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
-      <c r="B235" s="4"/>
-      <c r="C235" s="15"/>
-      <c r="D235" s="65"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B235" s="65"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="30"/>
-      <c r="D236" s="16"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B236" s="16"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="18"/>
-      <c r="B237" s="18"/>
-      <c r="C237" s="61"/>
-      <c r="D237" s="28"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B237" s="28"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
-      <c r="B238" s="4"/>
-      <c r="C238" s="60"/>
-      <c r="D238" s="16"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B238" s="16"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
-      <c r="B239" s="4"/>
-      <c r="C239" s="57"/>
-      <c r="D239" s="28"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B239" s="28"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
-      <c r="B240" s="4"/>
-      <c r="C240" s="8"/>
-      <c r="D240" s="16"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B240" s="16"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
-      <c r="B241" s="4"/>
-      <c r="C241" s="60"/>
-      <c r="D241" s="28"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B241" s="28"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
-      <c r="B242" s="4"/>
-      <c r="C242" s="57"/>
-      <c r="D242" s="16"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B242" s="16"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
-      <c r="B243" s="4"/>
-      <c r="C243" s="57"/>
-      <c r="D243" s="28"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B243" s="28"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
-      <c r="B244" s="4"/>
-      <c r="C244" s="57"/>
-      <c r="D244" s="16"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B244" s="16"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="18"/>
-      <c r="B245" s="18"/>
-      <c r="C245" s="57"/>
-      <c r="D245" s="13"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B245" s="13"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
-      <c r="B246" s="4"/>
-      <c r="C246" s="57"/>
-      <c r="D246" s="13"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B246" s="13"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
-      <c r="B247" s="4"/>
-      <c r="C247" s="57"/>
-      <c r="D247" s="16"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B247" s="16"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
-      <c r="B248" s="4"/>
-      <c r="C248" s="61"/>
-      <c r="D248" s="8"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B248" s="8"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
-      <c r="B249" s="4"/>
-      <c r="C249" s="28"/>
-      <c r="D249" s="13"/>
-    </row>
-    <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B249" s="13"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
-      <c r="B250" s="4"/>
-      <c r="C250" s="66"/>
-      <c r="D250" s="10"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B250" s="10"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
-      <c r="B251" s="4"/>
-      <c r="C251" s="15"/>
-      <c r="D251" s="8"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B251" s="8"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
-      <c r="B252" s="4"/>
-      <c r="C252" s="15"/>
-      <c r="D252" s="8"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B252" s="8"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
-      <c r="B253" s="4"/>
-      <c r="C253" s="15"/>
-      <c r="D253" s="67"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B253" s="67"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
-      <c r="B254" s="4"/>
-      <c r="C254" s="15"/>
-      <c r="D254" s="8"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B254" s="8"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
-      <c r="B255" s="4"/>
-      <c r="C255" s="15"/>
-      <c r="D255" s="67"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B255" s="67"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
-      <c r="B256" s="4"/>
-      <c r="C256" s="15"/>
-      <c r="D256" s="8"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B256" s="8"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
-      <c r="B257" s="4"/>
-      <c r="C257" s="15"/>
-      <c r="D257" s="8"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B257" s="8"/>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
-      <c r="B258" s="4"/>
-      <c r="C258" s="15"/>
-      <c r="D258" s="8"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B258" s="8"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
-      <c r="B259" s="4"/>
-      <c r="C259" s="15"/>
-      <c r="D259" s="9"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B259" s="9"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="18"/>
-      <c r="B260" s="18"/>
-      <c r="C260" s="6"/>
-      <c r="D260" s="8"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B260" s="8"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
-      <c r="B261" s="4"/>
-      <c r="C261" s="21"/>
-      <c r="D261" s="8"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B261" s="8"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
-      <c r="B262" s="4"/>
-      <c r="C262" s="21"/>
-      <c r="D262" s="67"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B262" s="67"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="18"/>
-      <c r="B263" s="18"/>
-      <c r="C263" s="6"/>
-      <c r="D263" s="8"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B263" s="8"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="18"/>
-      <c r="B264" s="18"/>
-      <c r="C264" s="22"/>
-      <c r="D264" s="9"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B264" s="9"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="18"/>
-      <c r="B265" s="18"/>
-      <c r="C265" s="22"/>
-      <c r="D265" s="8"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B265" s="8"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="18"/>
-      <c r="B266" s="18"/>
-      <c r="C266" s="22"/>
-      <c r="D266" s="67"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B266" s="67"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="18"/>
-      <c r="B267" s="18"/>
-      <c r="C267" s="22"/>
-      <c r="D267" s="8"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B267" s="8"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="18"/>
-      <c r="B268" s="18"/>
-      <c r="C268" s="22"/>
-      <c r="D268" s="8"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B268" s="8"/>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="18"/>
-      <c r="B269" s="18"/>
-      <c r="C269" s="6"/>
-      <c r="D269" s="68"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B269" s="68"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="18"/>
-      <c r="B270" s="18"/>
-      <c r="C270" s="6"/>
-      <c r="D270" s="28"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B270" s="28"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="18"/>
-      <c r="B271" s="18"/>
-      <c r="C271" s="6"/>
-      <c r="D271" s="8"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B271" s="8"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="18"/>
-      <c r="B272" s="18"/>
-      <c r="C272" s="6"/>
-      <c r="D272" s="6"/>
-    </row>
-    <row r="273" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D273" s="51"/>
+      <c r="B272" s="6"/>
+    </row>
+    <row r="273" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B273" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
